--- a/测试案例/CRF_070_AndroidACO更新安装包后上传版本信息至Backstore测试案例V1.1.xlsx
+++ b/测试案例/CRF_070_AndroidACO更新安装包后上传版本信息至Backstore测试案例V1.1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="75">
   <si>
     <t>Title</t>
   </si>
@@ -102,6 +102,9 @@
 &gt;网络速度正常</t>
   </si>
   <si>
+    <t>pass</t>
+  </si>
+  <si>
     <t>正常安装apk安装包</t>
   </si>
   <si>
@@ -123,9 +126,6 @@
     <t>TC1.2 apk0.4版本升级至0.5版本</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>正常更新安装0.5apk安装包</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>apk安装时异常</t>
   </si>
   <si>
-    <t>TC3.1 apk安装时终止安装（停电）</t>
+    <t>TC3.1 apk安装时终止安装</t>
   </si>
   <si>
     <t>安装apk安装包时终止安装</t>
@@ -217,7 +217,7 @@
     <t>apk打开时异常</t>
   </si>
   <si>
-    <t>TC3.1 apk打开时终止安装（停电）</t>
+    <t>TC3.1 apk打开时终止安装</t>
   </si>
   <si>
     <t>点击应用，启动应用程序时发生异常</t>
@@ -254,10 +254,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -345,9 +345,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,8 +381,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,6 +439,21 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,89 +470,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,7 +521,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,13 +575,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,7 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,73 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,25 +635,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,6 +681,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -718,17 +718,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,17 +766,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,25 +802,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,145 +823,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="D3" s="23">
         <f>COUNTIF(Android!D:D,"pass")</f>
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E3" s="23">
         <f>COUNTIF(Android!D:D,"fail")</f>
@@ -1641,8 +1641,8 @@
   <sheetPr/>
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" outlineLevelCol="4"/>
@@ -1731,7 +1731,9 @@
       <c r="C7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -1739,12 +1741,14 @@
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -1752,12 +1756,14 @@
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -1765,17 +1771,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A11" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1821,7 +1829,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E14" s="8"/>
     </row>
@@ -1833,10 +1841,10 @@
         <v>35</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E15" s="8"/>
     </row>
@@ -1845,13 +1853,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E16" s="8"/>
     </row>
@@ -1860,13 +1868,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E17" s="8"/>
     </row>
@@ -1918,7 +1926,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E21" s="8"/>
     </row>
@@ -1930,10 +1938,10 @@
         <v>37</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E22" s="8"/>
     </row>
@@ -1942,13 +1950,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E23" s="8"/>
     </row>
@@ -1957,13 +1965,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E24" s="8"/>
     </row>
@@ -2015,7 +2023,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E28" s="8"/>
     </row>
@@ -2027,10 +2035,10 @@
         <v>37</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E29" s="8"/>
     </row>
@@ -2039,13 +2047,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E30" s="8"/>
     </row>
@@ -2054,13 +2062,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E31" s="8"/>
     </row>
@@ -2128,7 +2136,7 @@
         <v>26</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E37" s="8"/>
     </row>
@@ -2140,10 +2148,10 @@
         <v>35</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E38" s="8"/>
     </row>
@@ -2152,13 +2160,13 @@
         <v>3</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E39" s="8"/>
     </row>
@@ -2167,13 +2175,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E40" s="8"/>
     </row>
@@ -2240,7 +2248,9 @@
       <c r="C46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E46" s="8"/>
     </row>
     <row r="47" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2251,9 +2261,11 @@
         <v>37</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E47" s="8"/>
     </row>
     <row r="48" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2264,9 +2276,11 @@
         <v>43</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E48" s="8"/>
     </row>
     <row r="49" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2274,12 +2288,14 @@
         <v>4</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E49" s="8"/>
     </row>
     <row r="50" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2287,12 +2303,14 @@
         <v>5</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E50" s="8"/>
     </row>
     <row r="51" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2342,7 +2360,9 @@
       <c r="C54" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="8"/>
+      <c r="D54" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E54" s="8"/>
     </row>
     <row r="55" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2353,9 +2373,11 @@
         <v>37</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E55" s="8"/>
     </row>
     <row r="56" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2366,9 +2388,11 @@
         <v>43</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E56" s="8"/>
     </row>
     <row r="57" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2376,12 +2400,14 @@
         <v>4</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E57" s="8"/>
     </row>
     <row r="58" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2389,12 +2415,14 @@
         <v>5</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E58" s="8"/>
     </row>
     <row r="59" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2444,7 +2472,9 @@
       <c r="C62" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="8"/>
+      <c r="D62" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E62" s="8"/>
     </row>
     <row r="63" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2455,9 +2485,11 @@
         <v>46</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E63" s="8"/>
     </row>
     <row r="64" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2468,9 +2500,11 @@
         <v>47</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E64" s="8"/>
     </row>
     <row r="65" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2478,12 +2512,14 @@
         <v>4</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E65" s="8"/>
     </row>
     <row r="66" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2491,12 +2527,14 @@
         <v>5</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E66" s="8"/>
     </row>
     <row r="67" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2546,7 +2584,9 @@
       <c r="C70" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="8"/>
+      <c r="D70" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E70" s="8"/>
     </row>
     <row r="71" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2557,9 +2597,11 @@
         <v>35</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E71" s="8"/>
     </row>
     <row r="72" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2570,9 +2612,11 @@
         <v>49</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E72" s="8"/>
     </row>
     <row r="73" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2580,12 +2624,14 @@
         <v>4</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E73" s="8"/>
     </row>
     <row r="74" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2593,12 +2639,14 @@
         <v>5</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D74" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E74" s="8"/>
     </row>
     <row r="75" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2648,7 +2696,9 @@
       <c r="C78" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="8"/>
+      <c r="D78" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E78" s="8"/>
     </row>
     <row r="79" ht="14.25" spans="1:5">
@@ -2659,9 +2709,11 @@
         <v>51</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E79" s="8"/>
     </row>
     <row r="80" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2672,9 +2724,11 @@
         <v>49</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D80" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E80" s="8"/>
     </row>
     <row r="81" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2682,12 +2736,14 @@
         <v>4</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E81" s="8"/>
     </row>
     <row r="82" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2695,12 +2751,14 @@
         <v>5</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D82" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E82" s="8"/>
     </row>
     <row r="83" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2750,7 +2808,9 @@
       <c r="C86" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="8"/>
+      <c r="D86" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E86" s="8"/>
     </row>
     <row r="87" ht="14.25" spans="1:5">
@@ -2761,9 +2821,11 @@
         <v>51</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D87" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E87" s="8"/>
     </row>
     <row r="88" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2774,9 +2836,11 @@
         <v>43</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D88" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E88" s="8"/>
     </row>
     <row r="89" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2784,12 +2848,14 @@
         <v>4</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E89" s="8"/>
     </row>
     <row r="90" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2797,12 +2863,14 @@
         <v>5</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D90" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E90" s="8"/>
     </row>
     <row r="91" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -2868,7 +2936,9 @@
       <c r="C96" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D96" s="8"/>
+      <c r="D96" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E96" s="8"/>
     </row>
     <row r="97" ht="14.25" spans="1:5">
@@ -2881,7 +2951,9 @@
       <c r="C97" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D97" s="8"/>
+      <c r="D97" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E97" s="8"/>
     </row>
     <row r="98" ht="14.25" spans="1:5">
@@ -2892,9 +2964,11 @@
         <v>57</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D98" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E98" s="8"/>
     </row>
     <row r="99" ht="14.25" spans="1:5">
@@ -2902,12 +2976,14 @@
         <v>4</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D99" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E99" s="8"/>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -2915,12 +2991,14 @@
         <v>5</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D100" s="8"/>
+      <c r="D100" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E100" s="8"/>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -2970,7 +3048,9 @@
       <c r="C104" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D104" s="8"/>
+      <c r="D104" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E104" s="8"/>
     </row>
     <row r="105" ht="28.5" spans="1:5">
@@ -2983,7 +3063,9 @@
       <c r="C105" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D105" s="8"/>
+      <c r="D105" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E105" s="8"/>
     </row>
     <row r="106" ht="14.25" spans="1:5">
@@ -2996,7 +3078,9 @@
       <c r="C106" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D106" s="8"/>
+      <c r="D106" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E106" s="8"/>
     </row>
     <row r="107" s="3" customFormat="1" ht="14.25" spans="1:5">
@@ -3004,12 +3088,14 @@
         <v>4</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D107" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E107" s="8"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="14.25" spans="1:5">
@@ -3017,12 +3103,14 @@
         <v>5</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D108" s="8"/>
+      <c r="D108" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E108" s="8"/>
     </row>
     <row r="109" s="2" customFormat="1" spans="1:1">
@@ -3084,7 +3172,9 @@
       <c r="C114" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D114" s="8"/>
+      <c r="D114" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E114" s="8"/>
     </row>
     <row r="115" ht="14.25" spans="1:5">
@@ -3092,12 +3182,14 @@
         <v>2</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E115" s="8"/>
     </row>
     <row r="116" ht="14.25" spans="1:5">
@@ -3110,7 +3202,9 @@
       <c r="C116" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D116" s="8"/>
+      <c r="D116" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E116" s="8"/>
     </row>
     <row r="117" ht="14.25" spans="1:5">
@@ -3123,7 +3217,9 @@
       <c r="C117" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D117" s="8"/>
+      <c r="D117" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E117" s="8"/>
     </row>
     <row r="118" ht="14.25" spans="1:5">
@@ -3131,12 +3227,14 @@
         <v>5</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D118" s="8"/>
+      <c r="D118" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E118" s="8"/>
     </row>
     <row r="119" ht="14.25" spans="1:5">
@@ -3186,7 +3284,9 @@
       <c r="C122" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D122" s="8"/>
+      <c r="D122" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E122" s="8"/>
     </row>
     <row r="123" ht="14.25" spans="1:5">
@@ -3194,12 +3294,14 @@
         <v>2</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D123" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E123" s="8"/>
     </row>
     <row r="124" ht="14.25" spans="1:5">
@@ -3212,7 +3314,9 @@
       <c r="C124" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D124" s="8"/>
+      <c r="D124" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E124" s="8"/>
     </row>
     <row r="125" ht="28.5" spans="1:5">
@@ -3225,7 +3329,9 @@
       <c r="C125" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D125" s="8"/>
+      <c r="D125" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E125" s="8"/>
     </row>
     <row r="126" ht="14.25" spans="1:5">
@@ -3233,12 +3339,14 @@
         <v>5</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D126" s="8"/>
+      <c r="D126" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E126" s="8"/>
     </row>
   </sheetData>
@@ -3267,297 +3375,312 @@
     <mergeCell ref="A119:E119"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="1" priority="33" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="1" priority="30" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="1" priority="31" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="1" priority="75" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="1" priority="27" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="1" priority="73" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
     <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="D58">
     <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="1" priority="72" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="1" priority="54" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
     <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="D66">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69">
+    <cfRule type="cellIs" dxfId="1" priority="71" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D77">
+    <cfRule type="cellIs" dxfId="1" priority="70" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="cellIs" dxfId="1" priority="68" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D95">
+    <cfRule type="cellIs" dxfId="1" priority="67" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D103">
+    <cfRule type="cellIs" dxfId="1" priority="66" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D113">
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D121">
+    <cfRule type="cellIs" dxfId="1" priority="43" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D12">
+    <cfRule type="cellIs" dxfId="1" priority="90" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D17">
+    <cfRule type="cellIs" dxfId="1" priority="78" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D19">
+    <cfRule type="cellIs" dxfId="1" priority="84" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D26">
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D35">
+    <cfRule type="cellIs" dxfId="1" priority="88" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:D44">
+    <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="cellIs" dxfId="1" priority="82" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:D60">
+    <cfRule type="cellIs" dxfId="1" priority="81" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70:D74">
+    <cfRule type="cellIs" dxfId="1" priority="56" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75:D76">
+    <cfRule type="cellIs" dxfId="1" priority="80" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78:D82">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86:D90">
+    <cfRule type="cellIs" dxfId="1" priority="50" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D92:D94">
+    <cfRule type="cellIs" dxfId="1" priority="86" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96:D100">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101:D102">
+    <cfRule type="cellIs" dxfId="1" priority="85" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104:D108">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D110:D112">
+    <cfRule type="cellIs" dxfId="1" priority="46" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114:D118">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119:D120">
+    <cfRule type="cellIs" dxfId="1" priority="45" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122:D126">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="1" priority="40" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="1" priority="39" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="1" priority="51" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="1" priority="36" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="1" priority="33" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="1" priority="49" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D79">
-    <cfRule type="cellIs" dxfId="1" priority="31" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D80">
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="1" priority="47" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="1" priority="27" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D103">
-    <cfRule type="cellIs" dxfId="1" priority="45" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D121">
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D124">
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
-    <cfRule type="cellIs" dxfId="1" priority="69" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D17">
-    <cfRule type="cellIs" dxfId="1" priority="57" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D19">
-    <cfRule type="cellIs" dxfId="1" priority="63" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D26">
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D35">
-    <cfRule type="cellIs" dxfId="1" priority="67" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D44">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
-    <cfRule type="cellIs" dxfId="1" priority="61" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59:D60">
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75:D76">
-    <cfRule type="cellIs" dxfId="1" priority="59" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D92:D94">
-    <cfRule type="cellIs" dxfId="1" priority="65" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D95:D100">
-    <cfRule type="cellIs" dxfId="1" priority="46" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101:D102">
-    <cfRule type="cellIs" dxfId="1" priority="64" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D104:D108">
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D110:D112">
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D113:D118">
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D119:D120">
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D10 D32 D41 D109 D127:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="96" operator="equal">
+  <conditionalFormatting sqref="D1:D6 D32 D41 D109 D127:D1048576">
+    <cfRule type="cellIs" dxfId="1" priority="117" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21 D24">
-    <cfRule type="cellIs" dxfId="1" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="77" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42 D67:D68">
-    <cfRule type="cellIs" dxfId="1" priority="62" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D46 D49:D50">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D54 D57:D58">
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62 D65:D66">
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70 D73:D74">
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D78 D81:D82">
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="83" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84 D91">
-    <cfRule type="cellIs" dxfId="1" priority="58" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86 D89:D90">
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D122 D125:D126">
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="79" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
